--- a/data/world_economic_indices/country_salary_stats.xlsx
+++ b/data/world_economic_indices/country_salary_stats.xlsx
@@ -514,501 +514,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>IS</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>GY</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>UY</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>BY</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>MX</t>
-  </si>
-  <si>
-    <t>LC</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>BW</t>
-  </si>
-  <si>
-    <t>EG</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>IR</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>TM</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>ZA</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>FJ</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>LK</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>IQ</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>JM</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>JO</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>UZ</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>DJ</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>MR</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>WS</t>
-  </si>
-  <si>
-    <t>KE</t>
-  </si>
-  <si>
-    <t>NG</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>GN</t>
-  </si>
-  <si>
-    <t>BJ</t>
-  </si>
-  <si>
-    <t>FM</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>TZ</t>
-  </si>
-  <si>
-    <t>ZW</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>KI</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
-    <t>VU</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>UG</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>SY</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>GW</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>SL</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>YE</t>
-  </si>
-  <si>
-    <t>VE</t>
-  </si>
-  <si>
-    <t>TW</t>
-  </si>
-  <si>
     <t>country_code</t>
   </si>
   <si>
@@ -1088,6 +593,501 @@
   </si>
   <si>
     <t>alternative_gdp_ppp?</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>gb</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>gy</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>il</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>jp</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>kz</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>uy</t>
+  </si>
+  <si>
+    <t>cl</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>mk</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>eg</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>vn</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>iq</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>sz</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>bo</t>
+  </si>
+  <si>
+    <t>jo</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>hn</t>
+  </si>
+  <si>
+    <t>dj</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>cg</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>ke</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>gn</t>
+  </si>
+  <si>
+    <t>bj</t>
+  </si>
+  <si>
+    <t>fm</t>
+  </si>
+  <si>
+    <t>zm</t>
+  </si>
+  <si>
+    <t>tz</t>
+  </si>
+  <si>
+    <t>zw</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>sy</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>mz</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>bi</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>ve</t>
+  </si>
+  <si>
+    <t>tw</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1460,30 +1460,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>333</v>
+        <v>168</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>334</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>335</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>165</v>
+      <c r="A2" t="s">
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1502,8 +1502,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>166</v>
+      <c r="A3" t="s">
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1522,8 +1522,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>167</v>
+      <c r="A4" t="s">
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1542,8 +1542,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>168</v>
+      <c r="A5" t="s">
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1562,8 +1562,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>169</v>
+      <c r="A6" t="s">
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1579,8 +1579,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>170</v>
+      <c r="A7" t="s">
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1599,8 +1599,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>171</v>
+      <c r="A8" t="s">
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1619,8 +1619,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>172</v>
+      <c r="A9" t="s">
+        <v>199</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1639,8 +1639,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>173</v>
+      <c r="A10" t="s">
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1659,8 +1659,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>174</v>
+      <c r="A11" t="s">
+        <v>201</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1679,8 +1679,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>175</v>
+      <c r="A12" t="s">
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1699,8 +1699,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>176</v>
+      <c r="A13" t="s">
+        <v>203</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1719,8 +1719,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>177</v>
+      <c r="A14" t="s">
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1739,8 +1739,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>178</v>
+      <c r="A15" t="s">
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>179</v>
+      <c r="A16" t="s">
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1779,8 +1779,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>180</v>
+      <c r="A17" t="s">
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1796,8 +1796,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>181</v>
+      <c r="A18" t="s">
+        <v>208</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -1816,8 +1816,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>182</v>
+      <c r="A19" t="s">
+        <v>209</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1836,8 +1836,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>183</v>
+      <c r="A20" t="s">
+        <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1856,8 +1856,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>184</v>
+      <c r="A21" t="s">
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1876,8 +1876,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>185</v>
+      <c r="A22" t="s">
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>186</v>
+      <c r="A23" t="s">
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1913,8 +1913,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>187</v>
+      <c r="A24" t="s">
+        <v>214</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1933,8 +1933,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>188</v>
+      <c r="A25" t="s">
+        <v>215</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1953,8 +1953,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>189</v>
+      <c r="A26" t="s">
+        <v>216</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1970,8 +1970,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>190</v>
+      <c r="A27" t="s">
+        <v>217</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -1990,8 +1990,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>191</v>
+      <c r="A28" t="s">
+        <v>218</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2007,8 +2007,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>192</v>
+      <c r="A29" t="s">
+        <v>219</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -2027,8 +2027,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>193</v>
+      <c r="A30" t="s">
+        <v>220</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -2047,8 +2047,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>194</v>
+      <c r="A31" t="s">
+        <v>221</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -2064,8 +2064,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>195</v>
+      <c r="A32" t="s">
+        <v>222</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -2084,8 +2084,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>196</v>
+      <c r="A33" t="s">
+        <v>223</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>197</v>
+      <c r="A34" t="s">
+        <v>224</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -2124,8 +2124,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>198</v>
+      <c r="A35" t="s">
+        <v>225</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2144,8 +2144,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>199</v>
+      <c r="A36" t="s">
+        <v>226</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
@@ -2164,8 +2164,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>200</v>
+      <c r="A37" t="s">
+        <v>227</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>201</v>
+      <c r="A38" t="s">
+        <v>228</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -2204,8 +2204,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>202</v>
+      <c r="A39" t="s">
+        <v>229</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -2224,8 +2224,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>203</v>
+      <c r="A40" t="s">
+        <v>230</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -2244,8 +2244,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>204</v>
+      <c r="A41" t="s">
+        <v>231</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -2264,8 +2264,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>205</v>
+      <c r="A42" t="s">
+        <v>232</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -2281,8 +2281,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>206</v>
+      <c r="A43" t="s">
+        <v>233</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
@@ -2298,8 +2298,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>207</v>
+      <c r="A44" t="s">
+        <v>234</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
@@ -2318,8 +2318,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>208</v>
+      <c r="A45" t="s">
+        <v>235</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2335,8 +2335,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
-        <v>209</v>
+      <c r="A46" t="s">
+        <v>236</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -2352,8 +2352,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>210</v>
+      <c r="A47" t="s">
+        <v>237</v>
       </c>
       <c r="B47" t="s">
         <v>45</v>
@@ -2369,8 +2369,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>211</v>
+      <c r="A48" t="s">
+        <v>238</v>
       </c>
       <c r="B48" t="s">
         <v>46</v>
@@ -2386,8 +2386,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>212</v>
+      <c r="A49" t="s">
+        <v>239</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -2403,8 +2403,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>213</v>
+      <c r="A50" t="s">
+        <v>240</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
@@ -2423,8 +2423,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>214</v>
+      <c r="A51" t="s">
+        <v>241</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>215</v>
+      <c r="A52" t="s">
+        <v>242</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -2457,8 +2457,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>216</v>
+      <c r="A53" t="s">
+        <v>243</v>
       </c>
       <c r="B53" t="s">
         <v>51</v>
@@ -2474,8 +2474,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>217</v>
+      <c r="A54" t="s">
+        <v>244</v>
       </c>
       <c r="B54" t="s">
         <v>52</v>
@@ -2491,8 +2491,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>218</v>
+      <c r="A55" t="s">
+        <v>245</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -2511,8 +2511,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>219</v>
+      <c r="A56" t="s">
+        <v>246</v>
       </c>
       <c r="B56" t="s">
         <v>54</v>
@@ -2528,8 +2528,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>220</v>
+      <c r="A57" t="s">
+        <v>247</v>
       </c>
       <c r="B57" t="s">
         <v>55</v>
@@ -2545,8 +2545,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>221</v>
+      <c r="A58" t="s">
+        <v>248</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -2562,8 +2562,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>222</v>
+      <c r="A59" t="s">
+        <v>249</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
@@ -2582,8 +2582,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
-        <v>223</v>
+      <c r="A60" t="s">
+        <v>250</v>
       </c>
       <c r="B60" t="s">
         <v>58</v>
@@ -2599,8 +2599,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
-        <v>224</v>
+      <c r="A61" t="s">
+        <v>251</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -2616,8 +2616,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
-        <v>225</v>
+      <c r="A62" t="s">
+        <v>252</v>
       </c>
       <c r="B62" t="s">
         <v>60</v>
@@ -2633,8 +2633,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>226</v>
+      <c r="A63" t="s">
+        <v>253</v>
       </c>
       <c r="B63" t="s">
         <v>61</v>
@@ -2650,8 +2650,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="3" t="s">
-        <v>227</v>
+      <c r="A64" t="s">
+        <v>254</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -2667,8 +2667,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
-        <v>228</v>
+      <c r="A65" t="s">
+        <v>255</v>
       </c>
       <c r="B65" t="s">
         <v>63</v>
@@ -2684,8 +2684,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
-        <v>229</v>
+      <c r="A66" t="s">
+        <v>256</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
@@ -2704,8 +2704,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
-        <v>230</v>
+      <c r="A67" t="s">
+        <v>257</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -2721,8 +2721,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>231</v>
+      <c r="A68" t="s">
+        <v>258</v>
       </c>
       <c r="B68" t="s">
         <v>66</v>
@@ -2738,8 +2738,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>232</v>
+      <c r="A69" t="s">
+        <v>259</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2758,8 +2758,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>233</v>
+      <c r="A70" t="s">
+        <v>260</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
@@ -2775,8 +2775,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>234</v>
+      <c r="A71" t="s">
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
@@ -2792,8 +2792,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
-        <v>235</v>
+      <c r="A72" t="s">
+        <v>262</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -2809,8 +2809,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
-        <v>236</v>
+      <c r="A73" t="s">
+        <v>263</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -2826,8 +2826,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
-        <v>237</v>
+      <c r="A74" t="s">
+        <v>264</v>
       </c>
       <c r="B74" t="s">
         <v>72</v>
@@ -2843,8 +2843,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
-        <v>238</v>
+      <c r="A75" t="s">
+        <v>265</v>
       </c>
       <c r="B75" t="s">
         <v>73</v>
@@ -2863,8 +2863,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
-        <v>239</v>
+      <c r="A76" t="s">
+        <v>266</v>
       </c>
       <c r="B76" t="s">
         <v>74</v>
@@ -2880,8 +2880,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>240</v>
+      <c r="A77" t="s">
+        <v>267</v>
       </c>
       <c r="B77" t="s">
         <v>75</v>
@@ -2897,8 +2897,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>241</v>
+      <c r="A78" t="s">
+        <v>268</v>
       </c>
       <c r="B78" t="s">
         <v>76</v>
@@ -2917,8 +2917,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>242</v>
+      <c r="A79" t="s">
+        <v>269</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
@@ -2934,8 +2934,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="3" t="s">
-        <v>243</v>
+      <c r="A80" t="s">
+        <v>270</v>
       </c>
       <c r="B80" t="s">
         <v>78</v>
@@ -2951,8 +2951,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
-        <v>244</v>
+      <c r="A81" t="s">
+        <v>271</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
@@ -2968,8 +2968,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>245</v>
+      <c r="A82" t="s">
+        <v>272</v>
       </c>
       <c r="B82" t="s">
         <v>80</v>
@@ -2985,8 +2985,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
-        <v>246</v>
+      <c r="A83" t="s">
+        <v>273</v>
       </c>
       <c r="B83" t="s">
         <v>81</v>
@@ -3002,8 +3002,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
-        <v>247</v>
+      <c r="A84" t="s">
+        <v>274</v>
       </c>
       <c r="B84" t="s">
         <v>82</v>
@@ -3019,8 +3019,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>248</v>
+      <c r="A85" t="s">
+        <v>275</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -3036,8 +3036,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
-        <v>249</v>
+      <c r="A86" t="s">
+        <v>276</v>
       </c>
       <c r="B86" t="s">
         <v>84</v>
@@ -3053,8 +3053,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="3" t="s">
-        <v>250</v>
+      <c r="A87" t="s">
+        <v>277</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
@@ -3070,8 +3070,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
-        <v>251</v>
+      <c r="A88" t="s">
+        <v>278</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -3087,8 +3087,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
-        <v>252</v>
+      <c r="A89" t="s">
+        <v>279</v>
       </c>
       <c r="B89" t="s">
         <v>87</v>
@@ -3104,8 +3104,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
-        <v>253</v>
+      <c r="A90" t="s">
+        <v>280</v>
       </c>
       <c r="B90" t="s">
         <v>88</v>
@@ -3121,8 +3121,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="3" t="s">
-        <v>254</v>
+      <c r="A91" t="s">
+        <v>281</v>
       </c>
       <c r="B91" t="s">
         <v>89</v>
@@ -3138,8 +3138,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
-        <v>255</v>
+      <c r="A92" t="s">
+        <v>282</v>
       </c>
       <c r="B92" t="s">
         <v>90</v>
@@ -3155,8 +3155,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>256</v>
+      <c r="A93" t="s">
+        <v>283</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
@@ -3172,8 +3172,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
-        <v>257</v>
+      <c r="A94" t="s">
+        <v>284</v>
       </c>
       <c r="B94" t="s">
         <v>92</v>
@@ -3189,8 +3189,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>258</v>
+      <c r="A95" t="s">
+        <v>285</v>
       </c>
       <c r="B95" t="s">
         <v>93</v>
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
-        <v>259</v>
+      <c r="A96" t="s">
+        <v>286</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>
@@ -3223,8 +3223,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>260</v>
+      <c r="A97" t="s">
+        <v>287</v>
       </c>
       <c r="B97" t="s">
         <v>95</v>
@@ -3240,8 +3240,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="3" t="s">
-        <v>261</v>
+      <c r="A98" t="s">
+        <v>288</v>
       </c>
       <c r="B98" t="s">
         <v>96</v>
@@ -3257,8 +3257,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
-        <v>262</v>
+      <c r="A99" t="s">
+        <v>289</v>
       </c>
       <c r="B99" t="s">
         <v>97</v>
@@ -3274,8 +3274,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
-        <v>263</v>
+      <c r="A100" t="s">
+        <v>290</v>
       </c>
       <c r="B100" t="s">
         <v>98</v>
@@ -3291,8 +3291,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
-        <v>264</v>
+      <c r="A101" t="s">
+        <v>291</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
@@ -3308,8 +3308,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
-        <v>265</v>
+      <c r="A102" t="s">
+        <v>292</v>
       </c>
       <c r="B102" t="s">
         <v>100</v>
@@ -3325,8 +3325,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="3" t="s">
-        <v>266</v>
+      <c r="A103" t="s">
+        <v>293</v>
       </c>
       <c r="B103" t="s">
         <v>101</v>
@@ -3342,8 +3342,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
-        <v>267</v>
+      <c r="A104" t="s">
+        <v>294</v>
       </c>
       <c r="B104" t="s">
         <v>102</v>
@@ -3359,8 +3359,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
-        <v>268</v>
+      <c r="A105" t="s">
+        <v>295</v>
       </c>
       <c r="B105" t="s">
         <v>103</v>
@@ -3376,8 +3376,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="3" t="s">
-        <v>269</v>
+      <c r="A106" t="s">
+        <v>296</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -3393,8 +3393,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
-        <v>270</v>
+      <c r="A107" t="s">
+        <v>297</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -3410,8 +3410,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="3" t="s">
-        <v>271</v>
+      <c r="A108" t="s">
+        <v>298</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -3427,8 +3427,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
-        <v>272</v>
+      <c r="A109" t="s">
+        <v>299</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -3444,8 +3444,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
-        <v>273</v>
+      <c r="A110" t="s">
+        <v>300</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
@@ -3461,8 +3461,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="3" t="s">
-        <v>274</v>
+      <c r="A111" t="s">
+        <v>301</v>
       </c>
       <c r="B111" t="s">
         <v>109</v>
@@ -3478,8 +3478,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="3" t="s">
-        <v>275</v>
+      <c r="A112" t="s">
+        <v>302</v>
       </c>
       <c r="B112" t="s">
         <v>110</v>
@@ -3495,8 +3495,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="3" t="s">
-        <v>276</v>
+      <c r="A113" t="s">
+        <v>303</v>
       </c>
       <c r="B113" t="s">
         <v>111</v>
@@ -3512,8 +3512,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="3" t="s">
-        <v>277</v>
+      <c r="A114" t="s">
+        <v>304</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -3529,8 +3529,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="3" t="s">
-        <v>278</v>
+      <c r="A115" t="s">
+        <v>305</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
@@ -3546,8 +3546,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="3" t="s">
-        <v>279</v>
+      <c r="A116" t="s">
+        <v>306</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
@@ -3563,8 +3563,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="3" t="s">
-        <v>280</v>
+      <c r="A117" t="s">
+        <v>307</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -3580,8 +3580,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="3" t="s">
-        <v>281</v>
+      <c r="A118" t="s">
+        <v>308</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
@@ -3597,8 +3597,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="3" t="s">
-        <v>282</v>
+      <c r="A119" t="s">
+        <v>309</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
@@ -3614,8 +3614,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
-        <v>283</v>
+      <c r="A120" t="s">
+        <v>310</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
@@ -3631,8 +3631,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
-        <v>284</v>
+      <c r="A121" t="s">
+        <v>311</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
@@ -3648,8 +3648,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" s="3" t="s">
-        <v>285</v>
+      <c r="A122" t="s">
+        <v>312</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
@@ -3665,8 +3665,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" s="3" t="s">
-        <v>286</v>
+      <c r="A123" t="s">
+        <v>313</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
@@ -3682,8 +3682,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" s="3" t="s">
-        <v>287</v>
+      <c r="A124" t="s">
+        <v>314</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
@@ -3699,8 +3699,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
-        <v>288</v>
+      <c r="A125" t="s">
+        <v>315</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
@@ -3716,8 +3716,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126" s="3" t="s">
-        <v>289</v>
+      <c r="A126" t="s">
+        <v>316</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
@@ -3733,8 +3733,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127" s="3" t="s">
-        <v>290</v>
+      <c r="A127" t="s">
+        <v>317</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
@@ -3750,8 +3750,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" s="3" t="s">
-        <v>291</v>
+      <c r="A128" t="s">
+        <v>318</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -3767,8 +3767,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" s="3" t="s">
-        <v>292</v>
+      <c r="A129" t="s">
+        <v>319</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
@@ -3784,8 +3784,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130" s="3" t="s">
-        <v>293</v>
+      <c r="A130" t="s">
+        <v>320</v>
       </c>
       <c r="B130" t="s">
         <v>128</v>
@@ -3801,8 +3801,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131" s="3" t="s">
-        <v>294</v>
+      <c r="A131" t="s">
+        <v>321</v>
       </c>
       <c r="B131" t="s">
         <v>129</v>
@@ -3818,8 +3818,8 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132" s="3" t="s">
-        <v>295</v>
+      <c r="A132" t="s">
+        <v>322</v>
       </c>
       <c r="B132" t="s">
         <v>130</v>
@@ -3835,8 +3835,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="3" t="s">
-        <v>296</v>
+      <c r="A133" t="s">
+        <v>323</v>
       </c>
       <c r="B133" t="s">
         <v>131</v>
@@ -3852,8 +3852,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" s="3" t="s">
-        <v>297</v>
+      <c r="A134" t="s">
+        <v>324</v>
       </c>
       <c r="B134" t="s">
         <v>132</v>
@@ -3869,8 +3869,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135" s="3" t="s">
-        <v>298</v>
+      <c r="A135" t="s">
+        <v>325</v>
       </c>
       <c r="B135" t="s">
         <v>133</v>
@@ -3886,8 +3886,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136" s="3" t="s">
-        <v>299</v>
+      <c r="A136" t="s">
+        <v>326</v>
       </c>
       <c r="B136" t="s">
         <v>134</v>
@@ -3903,8 +3903,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137" s="3" t="s">
-        <v>300</v>
+      <c r="A137" t="s">
+        <v>327</v>
       </c>
       <c r="B137" t="s">
         <v>135</v>
@@ -3920,8 +3920,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138" s="3" t="s">
-        <v>301</v>
+      <c r="A138" t="s">
+        <v>328</v>
       </c>
       <c r="B138" t="s">
         <v>136</v>
@@ -3937,8 +3937,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" s="3" t="s">
-        <v>302</v>
+      <c r="A139" t="s">
+        <v>329</v>
       </c>
       <c r="B139" t="s">
         <v>137</v>
@@ -3954,8 +3954,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140" s="3" t="s">
-        <v>303</v>
+      <c r="A140" t="s">
+        <v>330</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
@@ -3971,8 +3971,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141" s="3" t="s">
-        <v>304</v>
+      <c r="A141" t="s">
+        <v>331</v>
       </c>
       <c r="B141" t="s">
         <v>139</v>
@@ -3988,8 +3988,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142" s="3" t="s">
-        <v>305</v>
+      <c r="A142" t="s">
+        <v>332</v>
       </c>
       <c r="B142" t="s">
         <v>140</v>
@@ -4005,8 +4005,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143" s="3" t="s">
-        <v>306</v>
+      <c r="A143" t="s">
+        <v>333</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
@@ -4022,8 +4022,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144" s="3" t="s">
-        <v>307</v>
+      <c r="A144" t="s">
+        <v>334</v>
       </c>
       <c r="B144" t="s">
         <v>142</v>
@@ -4039,8 +4039,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145" s="3" t="s">
-        <v>308</v>
+      <c r="A145" t="s">
+        <v>335</v>
       </c>
       <c r="B145" t="s">
         <v>143</v>
@@ -4056,8 +4056,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" s="3" t="s">
-        <v>309</v>
+      <c r="A146" t="s">
+        <v>336</v>
       </c>
       <c r="B146" t="s">
         <v>144</v>
@@ -4073,8 +4073,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" s="3" t="s">
-        <v>310</v>
+      <c r="A147" t="s">
+        <v>337</v>
       </c>
       <c r="B147" t="s">
         <v>145</v>
@@ -4090,8 +4090,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" s="3" t="s">
-        <v>311</v>
+      <c r="A148" t="s">
+        <v>338</v>
       </c>
       <c r="B148" t="s">
         <v>146</v>
@@ -4107,8 +4107,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" s="3" t="s">
-        <v>312</v>
+      <c r="A149" t="s">
+        <v>339</v>
       </c>
       <c r="B149" t="s">
         <v>147</v>
@@ -4124,8 +4124,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="3" t="s">
-        <v>313</v>
+      <c r="A150" t="s">
+        <v>340</v>
       </c>
       <c r="B150" t="s">
         <v>148</v>
@@ -4141,8 +4141,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" s="3" t="s">
-        <v>314</v>
+      <c r="A151" t="s">
+        <v>341</v>
       </c>
       <c r="B151" t="s">
         <v>149</v>
@@ -4158,8 +4158,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="3" t="s">
-        <v>315</v>
+      <c r="A152" t="s">
+        <v>342</v>
       </c>
       <c r="B152" t="s">
         <v>150</v>
@@ -4175,8 +4175,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="3" t="s">
-        <v>316</v>
+      <c r="A153" t="s">
+        <v>343</v>
       </c>
       <c r="B153" t="s">
         <v>151</v>
@@ -4192,8 +4192,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="3" t="s">
-        <v>317</v>
+      <c r="A154" t="s">
+        <v>344</v>
       </c>
       <c r="B154" t="s">
         <v>152</v>
@@ -4209,8 +4209,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="3" t="s">
-        <v>318</v>
+      <c r="A155" t="s">
+        <v>345</v>
       </c>
       <c r="B155" t="s">
         <v>153</v>
@@ -4226,8 +4226,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="3" t="s">
-        <v>319</v>
+      <c r="A156" t="s">
+        <v>346</v>
       </c>
       <c r="B156" t="s">
         <v>154</v>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="3" t="s">
-        <v>320</v>
+      <c r="A157" t="s">
+        <v>347</v>
       </c>
       <c r="B157" t="s">
         <v>155</v>
@@ -4260,8 +4260,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="3" t="s">
-        <v>321</v>
+      <c r="A158" t="s">
+        <v>348</v>
       </c>
       <c r="B158" t="s">
         <v>156</v>
@@ -4277,8 +4277,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="3" t="s">
-        <v>322</v>
+      <c r="A159" t="s">
+        <v>349</v>
       </c>
       <c r="B159" t="s">
         <v>157</v>
@@ -4294,8 +4294,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" s="3" t="s">
-        <v>323</v>
+      <c r="A160" t="s">
+        <v>350</v>
       </c>
       <c r="B160" t="s">
         <v>158</v>
@@ -4311,8 +4311,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A161" s="3" t="s">
-        <v>324</v>
+      <c r="A161" t="s">
+        <v>351</v>
       </c>
       <c r="B161" t="s">
         <v>159</v>
@@ -4328,8 +4328,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A162" s="3" t="s">
-        <v>325</v>
+      <c r="A162" t="s">
+        <v>352</v>
       </c>
       <c r="B162" t="s">
         <v>160</v>
@@ -4345,8 +4345,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A163" s="3" t="s">
-        <v>326</v>
+      <c r="A163" t="s">
+        <v>353</v>
       </c>
       <c r="B163" t="s">
         <v>161</v>
@@ -4362,8 +4362,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A164" s="3" t="s">
-        <v>327</v>
+      <c r="A164" t="s">
+        <v>354</v>
       </c>
       <c r="B164" t="s">
         <v>162</v>
@@ -4379,8 +4379,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A165" s="3" t="s">
-        <v>328</v>
+      <c r="A165" t="s">
+        <v>355</v>
       </c>
       <c r="B165" t="s">
         <v>163</v>
@@ -4396,8 +4396,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A166" s="3" t="s">
-        <v>329</v>
+      <c r="A166" t="s">
+        <v>356</v>
       </c>
       <c r="B166" t="s">
         <v>164</v>
@@ -4413,11 +4413,11 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A167" s="3" t="s">
-        <v>336</v>
+      <c r="A167" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="C167" s="3">
         <v>12851</v>
@@ -4433,11 +4433,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A168" s="3" t="s">
-        <v>337</v>
+      <c r="A168" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="C168" s="3">
         <v>11853</v>
@@ -4453,11 +4453,11 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A169" s="3" t="s">
-        <v>338</v>
+      <c r="A169" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="C169" s="3">
         <v>22890</v>
@@ -4473,11 +4473,11 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A170" s="3" t="s">
-        <v>339</v>
+      <c r="A170" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="C170" s="3">
         <v>16350</v>
@@ -4493,11 +4493,11 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A171" s="3" t="s">
-        <v>340</v>
+      <c r="A171" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="C171" s="3">
         <v>20437</v>
@@ -4513,11 +4513,11 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A172" s="3" t="s">
-        <v>341</v>
+      <c r="A172" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="C172" s="3">
         <v>17985</v>
@@ -4533,11 +4533,11 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A173" s="3" t="s">
-        <v>342</v>
+      <c r="A173" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>351</v>
+        <v>186</v>
       </c>
       <c r="C173" s="3">
         <v>24525</v>
@@ -4553,11 +4553,11 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A174" s="3" t="s">
-        <v>343</v>
+      <c r="A174" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="C174" s="3">
         <v>14715</v>
@@ -4573,11 +4573,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A175" s="3" t="s">
-        <v>344</v>
+      <c r="A175" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="C175" s="3">
         <v>13080</v>
@@ -4593,11 +4593,11 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A176" s="3" t="s">
-        <v>345</v>
+      <c r="A176" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>354</v>
+        <v>189</v>
       </c>
       <c r="C176" s="3">
         <v>21255</v>
